--- a/final assignment/dike_model/data/rfr_strategies.xlsx
+++ b/final assignment/dike_model/data/rfr_strategies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Willy\Documents\GitHub\Model_based_decision_making\EPA1361\final assignment\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Willy\Documents\GitHub\Model_based_decision_making\EPA1361\final assignment\dike_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39913F7-58E1-469E-AECF-075E2D0A7DAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502D755F-C01E-4F9A-BCB3-B5A80C1DC123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1764" windowWidth="21360" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Olburgen" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
